--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/MiscSheets.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/MiscSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>itemCode</t>
   </si>
@@ -34,6 +34,12 @@
   <si>
     <t>jelly</t>
   </si>
+  <si>
+    <t>기묘찌</t>
+  </si>
+  <si>
+    <t>gimotti</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +361,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -370,7 +375,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -379,7 +383,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -388,7 +391,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -397,7 +399,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -412,7 +413,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -427,7 +427,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -442,7 +441,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -451,7 +449,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -462,7 +459,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -936,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -976,6 +972,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0">
+        <v>30002</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
